--- a/Isopor/Mapa_Almoxarifado.xlsx
+++ b/Isopor/Mapa_Almoxarifado.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\git\Linea\LineaBrasil\Isopor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\git\linea\Isopor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E008C317-0B73-4DD9-B1BA-8F93AC8F25D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9945" windowHeight="3735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="119">
   <si>
     <t>Lote</t>
   </si>
@@ -46,301 +45,343 @@
     <t>Lote_Cx</t>
   </si>
   <si>
-    <t>AEREO 1.2M ATENA</t>
+    <t>RACK ISTAMBUL</t>
+  </si>
+  <si>
+    <t>AMARELO</t>
+  </si>
+  <si>
+    <t>14/05/2025</t>
+  </si>
+  <si>
+    <t>Não Conferido</t>
+  </si>
+  <si>
+    <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+  </si>
+  <si>
+    <t>BRANCO</t>
+  </si>
+  <si>
+    <t>HOME GUARARAPES</t>
   </si>
   <si>
     <t>VERDE</t>
   </si>
   <si>
-    <t>12/05/2025</t>
-  </si>
-  <si>
-    <t>Não Conferido</t>
-  </si>
-  <si>
-    <t>NICHO 1.4</t>
+    <t>TORRE SIMPLES 0.7M ALLURE</t>
   </si>
   <si>
     <t>ROSA</t>
   </si>
   <si>
+    <t>15/05/2025</t>
+  </si>
+  <si>
+    <t>PAINEL GENOVA 2.0</t>
+  </si>
+  <si>
+    <t>AZUL</t>
+  </si>
+  <si>
+    <t>RACK RUBI</t>
+  </si>
+  <si>
+    <t>PAINEL HOME FRIBURGO</t>
+  </si>
+  <si>
+    <t>BALCAO 1.2M ATENA</t>
+  </si>
+  <si>
+    <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>PAINEL SANTORINI</t>
+  </si>
+  <si>
+    <t>AEREO SIMPLES 0.8M ATENA</t>
+  </si>
+  <si>
+    <t>RACK SANTORINI</t>
+  </si>
+  <si>
+    <t>MULTIUSO RETRO  PARTE 1</t>
+  </si>
+  <si>
+    <t>PAINEL HOME DUBLIN</t>
+  </si>
+  <si>
+    <t>19/05/2025</t>
+  </si>
+  <si>
+    <t>HOME NAPOLI</t>
+  </si>
+  <si>
+    <t>PAINEL RIPADO MODULAR 1.4</t>
+  </si>
+  <si>
+    <t>RACK COLORADO</t>
+  </si>
+  <si>
+    <t>RACK SAO FRANCISCO</t>
+  </si>
+  <si>
+    <t>20/05/2025</t>
+  </si>
+  <si>
+    <t>HOME ELDORADO 2.0</t>
+  </si>
+  <si>
+    <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+  </si>
+  <si>
+    <t>RACK CRONOS 2.2</t>
+  </si>
+  <si>
+    <t>EXPOSITOR SIMPLES 3.05M</t>
+  </si>
+  <si>
+    <t>MODULO EXPOSITOR SIMPLES 0.6M</t>
+  </si>
+  <si>
+    <t>HOME MUNIQUE</t>
+  </si>
+  <si>
+    <t>21/05/2025</t>
+  </si>
+  <si>
+    <t>CRISTALEIRA 0.7M ALLURE</t>
+  </si>
+  <si>
+    <t>PAINEL HOME ZURIQUE</t>
+  </si>
+  <si>
+    <t>AEREO MICROONDAS 0.8M SELENE</t>
+  </si>
+  <si>
     <t>RACK ESMERALDA</t>
   </si>
   <si>
-    <t>AZUL</t>
-  </si>
-  <si>
-    <t>HOME NAPOLI</t>
-  </si>
-  <si>
-    <t>AMARELO</t>
-  </si>
-  <si>
-    <t>CRISTALEIRA 0.7M ATENA</t>
-  </si>
-  <si>
-    <t>13/05/2025</t>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t>RACK OURO PRETO</t>
+  </si>
+  <si>
+    <t>MODULO RIPADO 0.4</t>
+  </si>
+  <si>
+    <t>RACK AURUM</t>
+  </si>
+  <si>
+    <t>BALCAO 0.8M ALLURE</t>
+  </si>
+  <si>
+    <t>23/05/2025</t>
+  </si>
+  <si>
+    <t>HOME ATLANTA</t>
+  </si>
+  <si>
+    <t>NICHO 2.2</t>
+  </si>
+  <si>
+    <t>24/05/2025</t>
+  </si>
+  <si>
+    <t>AEREO 1.2M ALLURE</t>
+  </si>
+  <si>
+    <t>26/05/2025</t>
+  </si>
+  <si>
+    <t>PAINEL HOME HAVANA</t>
+  </si>
+  <si>
+    <t>PRATELEIRA 2.2</t>
   </si>
   <si>
     <t>BALCAO 1.2M ALLURE</t>
   </si>
   <si>
+    <t>MESA DE CABECEIRA BUZIOS</t>
+  </si>
+  <si>
+    <t>RACK DUBAI 1.8</t>
+  </si>
+  <si>
+    <t>AEREO SIMPLES 0.8M SELENE</t>
+  </si>
+  <si>
+    <t>27/05/2025</t>
+  </si>
+  <si>
+    <t>BALCAO 0.8M SELENE</t>
+  </si>
+  <si>
+    <t>TAMPO BALCAO 0.7M MODELO 001</t>
+  </si>
+  <si>
+    <t>TAMPO BALCAO 0.8M MODELO 001</t>
+  </si>
+  <si>
+    <t>CRISTALEIRA 0.65M SELENE</t>
+  </si>
+  <si>
+    <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+  </si>
+  <si>
+    <t>MODULO LATERAL OURO PRETO</t>
+  </si>
+  <si>
+    <t>28/05/2025</t>
+  </si>
+  <si>
+    <t>PRATELEIRA CURVA 2.2</t>
+  </si>
+  <si>
+    <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
+  </si>
+  <si>
+    <t>ESTANTE NEW BAHIA</t>
+  </si>
+  <si>
+    <t>29/05/2025</t>
+  </si>
+  <si>
+    <t>PAINEL HOME MARAGOGI</t>
+  </si>
+  <si>
+    <t>PRATELEIRA CURVA 1.4</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+  </si>
+  <si>
+    <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+  </si>
+  <si>
+    <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+  </si>
+  <si>
+    <t>ESTANTE NEW LARA</t>
+  </si>
+  <si>
+    <t>CABECEIRA LARANJEIRAS 2.4</t>
+  </si>
+  <si>
+    <t>PAINEL HOME ARARUNA</t>
+  </si>
+  <si>
+    <t>NICHO CURVO 1.4</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>APARADOR MONACO</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>MESA DE CENTRO MONACO</t>
+  </si>
+  <si>
+    <t>NICHO CURVO 2.2</t>
+  </si>
+  <si>
+    <t>HOME ELDORADO 2.0 JAMAR</t>
+  </si>
+  <si>
+    <t>BUFFET EVORA 1.6</t>
+  </si>
+  <si>
+    <t>04/06/2025</t>
+  </si>
+  <si>
+    <t>BUFFET 1.4 LUCCA PARTE 3</t>
+  </si>
+  <si>
+    <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+  </si>
+  <si>
+    <t>PAINEL HOME LUGANO</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>BUFFET 1.4 LUCCA PARTE 2</t>
+  </si>
+  <si>
+    <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+  </si>
+  <si>
+    <t>APARADOR LISBOA</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>MESA DE CENTRO LISBOA</t>
+  </si>
+  <si>
+    <t>PAINEL HOME ALVORADA</t>
+  </si>
+  <si>
+    <t>TAMPO BALCAO 1.2M SELENE</t>
+  </si>
+  <si>
+    <t>AEREO 1.2M SELENE</t>
+  </si>
+  <si>
+    <t>PAINEL EXTENSIVEL TULUM</t>
+  </si>
+  <si>
     <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
   </si>
   <si>
-    <t>BRANCO</t>
-  </si>
-  <si>
-    <t>HOME MACEIO</t>
-  </si>
-  <si>
-    <t>PAINEL HOME MARAGOGI</t>
-  </si>
-  <si>
-    <t>RACK ISTAMBUL</t>
-  </si>
-  <si>
-    <t>14/05/2025</t>
-  </si>
-  <si>
-    <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
-  </si>
-  <si>
-    <t>HOME GUARARAPES</t>
-  </si>
-  <si>
-    <t>TORRE SIMPLES 0.7M ALLURE</t>
-  </si>
-  <si>
-    <t>15/05/2025</t>
-  </si>
-  <si>
-    <t>PAINEL GENOVA 2.0</t>
-  </si>
-  <si>
-    <t>RACK RUBI</t>
-  </si>
-  <si>
-    <t>PAINEL HOME FRIBURGO</t>
-  </si>
-  <si>
-    <t>BALCAO 1.2M ATENA</t>
-  </si>
-  <si>
-    <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
-  </si>
-  <si>
-    <t>16/05/2025</t>
-  </si>
-  <si>
-    <t>PAINEL SANTORINI</t>
-  </si>
-  <si>
-    <t>AEREO SIMPLES 0.8M ATENA</t>
-  </si>
-  <si>
-    <t>RACK SANTORINI</t>
-  </si>
-  <si>
-    <t>MULTIUSO RETRO  PARTE 1</t>
-  </si>
-  <si>
-    <t>PAINEL HOME DUBLIN</t>
-  </si>
-  <si>
-    <t>19/05/2025</t>
-  </si>
-  <si>
-    <t>PAINEL RIPADO MODULAR 1.4</t>
-  </si>
-  <si>
-    <t>RACK COLORADO</t>
-  </si>
-  <si>
-    <t>RACK SAO FRANCISCO</t>
-  </si>
-  <si>
-    <t>20/05/2025</t>
-  </si>
-  <si>
-    <t>HOME ELDORADO 2.0</t>
-  </si>
-  <si>
-    <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
-  </si>
-  <si>
-    <t>RACK CRONOS 2.2</t>
-  </si>
-  <si>
-    <t>EXPOSITOR SIMPLES 3.05M</t>
-  </si>
-  <si>
-    <t>MODULO EXPOSITOR SIMPLES 0.6M</t>
-  </si>
-  <si>
-    <t>HOME MUNIQUE</t>
-  </si>
-  <si>
-    <t>21/05/2025</t>
-  </si>
-  <si>
-    <t>CRISTALEIRA 0.7M ALLURE</t>
-  </si>
-  <si>
-    <t>PAINEL HOME ZURIQUE</t>
-  </si>
-  <si>
-    <t>AEREO MICROONDAS 0.8M SELENE</t>
-  </si>
-  <si>
-    <t>22/05/2025</t>
-  </si>
-  <si>
-    <t>RACK OURO PRETO</t>
-  </si>
-  <si>
-    <t>MODULO RIPADO 0.4</t>
-  </si>
-  <si>
-    <t>RACK AURUM</t>
-  </si>
-  <si>
-    <t>BALCAO 0.8M ALLURE</t>
-  </si>
-  <si>
-    <t>23/05/2025</t>
-  </si>
-  <si>
-    <t>HOME ATLANTA</t>
-  </si>
-  <si>
-    <t>NICHO 2.2</t>
-  </si>
-  <si>
-    <t>24/05/2025</t>
-  </si>
-  <si>
-    <t>AEREO 1.2M ALLURE</t>
-  </si>
-  <si>
-    <t>26/05/2025</t>
-  </si>
-  <si>
-    <t>PAINEL HOME HAVANA</t>
-  </si>
-  <si>
-    <t>PRATELEIRA 2.2</t>
-  </si>
-  <si>
-    <t>MESA DE CABECEIRA BUZIOS</t>
-  </si>
-  <si>
-    <t>RACK DUBAI 1.8</t>
-  </si>
-  <si>
-    <t>AEREO SIMPLES 0.8M SELENE</t>
-  </si>
-  <si>
-    <t>27/05/2025</t>
-  </si>
-  <si>
-    <t>BALCAO 0.8M SELENE</t>
-  </si>
-  <si>
-    <t>CRISTALEIRA 0.65M SELENE</t>
-  </si>
-  <si>
-    <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
-  </si>
-  <si>
-    <t>MODULO LATERAL OURO PRETO</t>
-  </si>
-  <si>
-    <t>28/05/2025</t>
-  </si>
-  <si>
-    <t>PRATELEIRA CURVA 2.2</t>
-  </si>
-  <si>
-    <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
-  </si>
-  <si>
-    <t>ESTANTE NEW BAHIA</t>
-  </si>
-  <si>
-    <t>29/05/2025</t>
-  </si>
-  <si>
-    <t>PRATELEIRA CURVA 1.4</t>
-  </si>
-  <si>
-    <t>30/05/2025</t>
-  </si>
-  <si>
-    <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
-  </si>
-  <si>
-    <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
-  </si>
-  <si>
-    <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
-  </si>
-  <si>
-    <t>ESTANTE NEW LARA</t>
-  </si>
-  <si>
-    <t>CABECEIRA LARANJEIRAS 2.4</t>
-  </si>
-  <si>
-    <t>PAINEL HOME ARARUNA</t>
-  </si>
-  <si>
-    <t>NICHO CURVO 1.4</t>
-  </si>
-  <si>
-    <t>02/06/2025</t>
-  </si>
-  <si>
-    <t>APARADOR MONACO</t>
-  </si>
-  <si>
-    <t>03/06/2025</t>
-  </si>
-  <si>
-    <t>MESA DE CENTRO MONACO</t>
-  </si>
-  <si>
-    <t>NICHO CURVO 2.2</t>
-  </si>
-  <si>
-    <t>HOME ELDORADO 2.0 JAMAR</t>
-  </si>
-  <si>
-    <t>APARADOR LISBOA</t>
-  </si>
-  <si>
-    <t>06/06/2025</t>
-  </si>
-  <si>
-    <t>MESA DE CENTRO LISBOA</t>
-  </si>
-  <si>
-    <t>Mapeado</t>
-  </si>
-  <si>
-    <t>Entregue</t>
-  </si>
-  <si>
-    <t>Conferido</t>
-  </si>
-  <si>
-    <t>Separado</t>
+    <t>09/06/2025</t>
+  </si>
+  <si>
+    <t>AEREO DUPLO 0.8M SELENE</t>
+  </si>
+  <si>
+    <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
+  </si>
+  <si>
+    <t>RACK CRONOS 1.8</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>HOME VIENA</t>
+  </si>
+  <si>
+    <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+  </si>
+  <si>
+    <t>BUFFET RETRO 1.4 PARTE 1</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>07/07/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,11 +768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -773,10 +814,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>714560</v>
+        <v>714568</v>
       </c>
       <c r="B2" s="2">
-        <v>810015082</v>
+        <v>810003078</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -788,21 +829,21 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>714561</v>
+        <v>714570</v>
       </c>
       <c r="B3" s="4">
-        <v>810014028</v>
+        <v>810012015</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -814,21 +855,21 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>714562</v>
+        <v>714571</v>
       </c>
       <c r="B4" s="2">
-        <v>810003060</v>
+        <v>810002036</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -840,21 +881,21 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>714563</v>
+        <v>714572</v>
       </c>
       <c r="B5" s="4">
-        <v>810002049</v>
+        <v>810015072</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>16</v>
@@ -863,102 +904,102 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>714564</v>
+        <v>714573</v>
       </c>
       <c r="B6" s="2">
-        <v>810015083</v>
+        <v>810006097</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>714565</v>
+        <v>714574</v>
       </c>
       <c r="B7" s="4">
-        <v>810015066</v>
+        <v>810003056</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>714566</v>
+        <v>714575</v>
       </c>
       <c r="B8" s="2">
-        <v>810012016</v>
+        <v>810006092</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>712370</v>
+        <v>714576</v>
       </c>
       <c r="B9" s="4">
-        <v>810002032</v>
+        <v>810015076</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -967,180 +1008,180 @@
         <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>714567</v>
+        <v>714577</v>
       </c>
       <c r="B10" s="2">
-        <v>810006049</v>
+        <v>810015067</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>714568</v>
+        <v>714579</v>
       </c>
       <c r="B11" s="4">
-        <v>810003078</v>
+        <v>810006098</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>714570</v>
+        <v>714580</v>
       </c>
       <c r="B12" s="2">
-        <v>810012015</v>
+        <v>810015079</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>714571</v>
+        <v>715754</v>
       </c>
       <c r="B13" s="4">
-        <v>810002036</v>
+        <v>810003088</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>714572</v>
+        <v>715942</v>
       </c>
       <c r="B14" s="2">
-        <v>810015072</v>
+        <v>810014010</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>714573</v>
+        <v>715943</v>
       </c>
       <c r="B15" s="4">
-        <v>810006097</v>
+        <v>810006078</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>714574</v>
+        <v>715945</v>
       </c>
       <c r="B16" s="2">
-        <v>810003056</v>
+        <v>810002049</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>32</v>
@@ -1149,76 +1190,76 @@
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>714575</v>
+        <v>715946</v>
       </c>
       <c r="B17" s="4">
-        <v>810006092</v>
+        <v>810006068</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>714576</v>
+        <v>715947</v>
       </c>
       <c r="B18" s="2">
-        <v>810015076</v>
+        <v>810003053</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>714577</v>
+        <v>715948</v>
       </c>
       <c r="B19" s="4">
-        <v>810015067</v>
+        <v>810003051</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>35</v>
@@ -1230,21 +1271,21 @@
         <v>36</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>714579</v>
+        <v>715949</v>
       </c>
       <c r="B20" s="2">
-        <v>810006098</v>
+        <v>810002042</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>37</v>
@@ -1256,265 +1297,265 @@
         <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>714580</v>
+        <v>717258</v>
       </c>
       <c r="B21" s="4">
-        <v>810015079</v>
+        <v>810012013</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>715754</v>
+        <v>715950</v>
       </c>
       <c r="B22" s="2">
-        <v>810003088</v>
+        <v>810003063</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>715942</v>
+        <v>712371</v>
       </c>
       <c r="B23" s="4">
-        <v>810014010</v>
+        <v>810006083</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>715943</v>
+        <v>712372</v>
       </c>
       <c r="B24" s="2">
-        <v>810006078</v>
+        <v>810006084</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>715945</v>
+        <v>714581</v>
       </c>
       <c r="B25" s="4">
-        <v>810002049</v>
+        <v>810002048</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>715946</v>
+        <v>714583</v>
       </c>
       <c r="B26" s="2">
-        <v>810006068</v>
+        <v>810015074</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>715947</v>
+        <v>715951</v>
       </c>
       <c r="B27" s="4">
-        <v>810003053</v>
+        <v>810006095</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>715948</v>
+        <v>719933</v>
       </c>
       <c r="B28" s="2">
-        <v>810003051</v>
+        <v>810015092</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>715949</v>
+        <v>717256</v>
       </c>
       <c r="B29" s="4">
-        <v>810002042</v>
+        <v>810003060</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>717258</v>
+        <v>717257</v>
       </c>
       <c r="B30" s="2">
-        <v>810012013</v>
+        <v>810003055</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1522,50 +1563,50 @@
         <v>11</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>715950</v>
+        <v>717259</v>
       </c>
       <c r="B31" s="4">
-        <v>810003063</v>
+        <v>810006068</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>712371</v>
+        <v>717267</v>
       </c>
       <c r="B32" s="2">
-        <v>810006083</v>
+        <v>810012015</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>11</v>
@@ -1574,24 +1615,24 @@
         <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>712372</v>
+        <v>717260</v>
       </c>
       <c r="B33" s="4">
-        <v>810006084</v>
+        <v>810014032</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>11</v>
@@ -1600,24 +1641,24 @@
         <v>11</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>714581</v>
+        <v>717261</v>
       </c>
       <c r="B34" s="2">
-        <v>810002048</v>
+        <v>810003058</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>11</v>
@@ -1626,21 +1667,21 @@
         <v>11</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>714583</v>
+        <v>717262</v>
       </c>
       <c r="B35" s="4">
-        <v>810015074</v>
+        <v>810015068</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>53</v>
@@ -1652,21 +1693,21 @@
         <v>11</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>715951</v>
+        <v>717263</v>
       </c>
       <c r="B36" s="2">
-        <v>810006095</v>
+        <v>810003056</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>53</v>
@@ -1678,21 +1719,21 @@
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>719933</v>
+        <v>717265</v>
       </c>
       <c r="B37" s="4">
-        <v>810015092</v>
+        <v>810002042</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>53</v>
@@ -1704,24 +1745,24 @@
         <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>717256</v>
+        <v>717266</v>
       </c>
       <c r="B38" s="2">
-        <v>810003060</v>
+        <v>810002041</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>11</v>
@@ -1730,24 +1771,24 @@
         <v>11</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>717257</v>
+        <v>717268</v>
       </c>
       <c r="B39" s="4">
-        <v>810003055</v>
+        <v>810014029</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>11</v>
@@ -1756,24 +1797,24 @@
         <v>11</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>717259</v>
+        <v>717264</v>
       </c>
       <c r="B40" s="2">
-        <v>810006068</v>
+        <v>810015074</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>11</v>
@@ -1782,24 +1823,24 @@
         <v>11</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>717267</v>
+        <v>717271</v>
       </c>
       <c r="B41" s="4">
-        <v>810012015</v>
+        <v>810015073</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>11</v>
@@ -1808,24 +1849,24 @@
         <v>11</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>717260</v>
+        <v>717272</v>
       </c>
       <c r="B42" s="2">
-        <v>810014032</v>
+        <v>810006099</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>11</v>
@@ -1834,24 +1875,24 @@
         <v>11</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>717261</v>
+        <v>717273</v>
       </c>
       <c r="B43" s="4">
-        <v>810003058</v>
+        <v>810014031</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>11</v>
@@ -1860,24 +1901,24 @@
         <v>11</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>717262</v>
+        <v>719058</v>
       </c>
       <c r="B44" s="2">
-        <v>810015068</v>
+        <v>810015067</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>11</v>
@@ -1886,24 +1927,24 @@
         <v>11</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>717263</v>
+        <v>719059</v>
       </c>
       <c r="B45" s="4">
-        <v>810003056</v>
+        <v>810015066</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>11</v>
@@ -1912,24 +1953,24 @@
         <v>11</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>717265</v>
+        <v>719060</v>
       </c>
       <c r="B46" s="2">
-        <v>810002042</v>
+        <v>810013012</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>11</v>
@@ -1938,15 +1979,15 @@
         <v>11</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>717266</v>
+        <v>719061</v>
       </c>
       <c r="B47" s="4">
-        <v>810002041</v>
+        <v>810003089</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>63</v>
@@ -1955,7 +1996,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>11</v>
@@ -1964,21 +2005,21 @@
         <v>11</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>717268</v>
+        <v>719062</v>
       </c>
       <c r="B48" s="2">
-        <v>810014029</v>
+        <v>810015060</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>65</v>
@@ -1990,21 +2031,21 @@
         <v>11</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>717264</v>
+        <v>719063</v>
       </c>
       <c r="B49" s="4">
-        <v>810015074</v>
+        <v>810015065</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>65</v>
@@ -2016,24 +2057,24 @@
         <v>11</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>717271</v>
+        <v>720831</v>
       </c>
       <c r="B50" s="2">
-        <v>810015073</v>
+        <v>810015004</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>11</v>
@@ -2042,24 +2083,24 @@
         <v>11</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>717272</v>
+        <v>720832</v>
       </c>
       <c r="B51" s="4">
-        <v>810006099</v>
+        <v>810015008</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>11</v>
@@ -2068,24 +2109,24 @@
         <v>11</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>717273</v>
+        <v>717274</v>
       </c>
       <c r="B52" s="2">
-        <v>810014031</v>
+        <v>810015086</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>11</v>
@@ -2094,24 +2135,24 @@
         <v>11</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>719058</v>
+        <v>719064</v>
       </c>
       <c r="B53" s="4">
-        <v>810015067</v>
+        <v>810012004</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>11</v>
@@ -2125,19 +2166,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>719059</v>
+        <v>719065</v>
       </c>
       <c r="B54" s="2">
-        <v>810015066</v>
+        <v>810002042</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>11</v>
@@ -2151,19 +2192,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>719060</v>
+        <v>719066</v>
       </c>
       <c r="B55" s="4">
-        <v>810013012</v>
+        <v>810014027</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>11</v>
@@ -2177,19 +2218,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>719061</v>
+        <v>719068</v>
       </c>
       <c r="B56" s="2">
-        <v>810003089</v>
+        <v>810003058</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>11</v>
@@ -2203,19 +2244,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>719062</v>
+        <v>719091</v>
       </c>
       <c r="B57" s="4">
-        <v>810015060</v>
+        <v>810014047</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>11</v>
@@ -2229,10 +2270,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>719063</v>
+        <v>719074</v>
       </c>
       <c r="B58" s="2">
-        <v>810015065</v>
+        <v>810014044</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>74</v>
@@ -2241,7 +2282,7 @@
         <v>17</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>11</v>
@@ -2255,19 +2296,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>717274</v>
+        <v>719076</v>
       </c>
       <c r="B59" s="4">
-        <v>810015086</v>
+        <v>810001027</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>11</v>
@@ -2281,19 +2322,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>719064</v>
+        <v>717269</v>
       </c>
       <c r="B60" s="2">
-        <v>810012004</v>
+        <v>810002036</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>11</v>
@@ -2307,19 +2348,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>719065</v>
+        <v>719080</v>
       </c>
       <c r="B61" s="4">
-        <v>810002042</v>
+        <v>810006049</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>11</v>
@@ -2333,19 +2374,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>719066</v>
+        <v>719082</v>
       </c>
       <c r="B62" s="2">
-        <v>810014027</v>
+        <v>810014046</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>11</v>
@@ -2359,19 +2400,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>719068</v>
+        <v>720465</v>
       </c>
       <c r="B63" s="4">
-        <v>810003058</v>
+        <v>810002046</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>11</v>
@@ -2385,19 +2426,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>719091</v>
+        <v>720466</v>
       </c>
       <c r="B64" s="2">
-        <v>810014047</v>
+        <v>810002040</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>11</v>
@@ -2411,19 +2452,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>719074</v>
+        <v>720467</v>
       </c>
       <c r="B65" s="4">
-        <v>810014044</v>
+        <v>810006076</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>11</v>
@@ -2437,19 +2478,19 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>719076</v>
+        <v>719085</v>
       </c>
       <c r="B66" s="2">
-        <v>810001027</v>
+        <v>810003078</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>11</v>
@@ -2463,19 +2504,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>717269</v>
+        <v>719086</v>
       </c>
       <c r="B67" s="4">
-        <v>810002036</v>
+        <v>810001023</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>11</v>
@@ -2489,19 +2530,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>719080</v>
+        <v>719087</v>
       </c>
       <c r="B68" s="2">
-        <v>810006049</v>
+        <v>810013015</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>11</v>
@@ -2515,19 +2556,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>719082</v>
+        <v>719088</v>
       </c>
       <c r="B69" s="4">
-        <v>810014046</v>
+        <v>810006054</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>11</v>
@@ -2541,19 +2582,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>720465</v>
+        <v>719089</v>
       </c>
       <c r="B70" s="2">
-        <v>810002046</v>
+        <v>810014048</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>11</v>
@@ -2567,19 +2608,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>720466</v>
+        <v>714585</v>
       </c>
       <c r="B71" s="4">
-        <v>810002040</v>
+        <v>810003088</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>11</v>
@@ -2593,19 +2634,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>720467</v>
+        <v>719067</v>
       </c>
       <c r="B72" s="2">
-        <v>810006076</v>
+        <v>810002036</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>11</v>
@@ -2619,19 +2660,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>719085</v>
+        <v>714586</v>
       </c>
       <c r="B73" s="4">
-        <v>810003078</v>
+        <v>810005021</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>11</v>
@@ -2645,19 +2686,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>719086</v>
+        <v>714589</v>
       </c>
       <c r="B74" s="2">
-        <v>810001023</v>
+        <v>810004014</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>11</v>
@@ -2671,19 +2712,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>719087</v>
+        <v>719090</v>
       </c>
       <c r="B75" s="4">
-        <v>810013015</v>
+        <v>810002049</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>11</v>
@@ -2697,19 +2738,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>719088</v>
+        <v>719070</v>
       </c>
       <c r="B76" s="2">
-        <v>810006054</v>
+        <v>810014049</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>11</v>
@@ -2723,19 +2764,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>719089</v>
+        <v>717275</v>
       </c>
       <c r="B77" s="4">
-        <v>810014048</v>
+        <v>810002050</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>11</v>
@@ -2749,19 +2790,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>714585</v>
+        <v>720833</v>
       </c>
       <c r="B78" s="2">
-        <v>810003088</v>
+        <v>810014051</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>11</v>
@@ -2775,19 +2816,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>719067</v>
+        <v>720834</v>
       </c>
       <c r="B79" s="4">
-        <v>810002036</v>
+        <v>810003060</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>11</v>
@@ -2801,16 +2842,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>714586</v>
+        <v>720835</v>
       </c>
       <c r="B80" s="2">
-        <v>810005021</v>
+        <v>810006099</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>94</v>
@@ -2827,16 +2868,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>714589</v>
+        <v>720836</v>
       </c>
       <c r="B81" s="4">
-        <v>810004014</v>
+        <v>810005014</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>94</v>
@@ -2853,16 +2894,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>719090</v>
+        <v>720837</v>
       </c>
       <c r="B82" s="2">
-        <v>810002049</v>
+        <v>810012001</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>94</v>
@@ -2879,19 +2920,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>719070</v>
+        <v>720838</v>
       </c>
       <c r="B83" s="4">
-        <v>810014049</v>
+        <v>810006093</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>11</v>
@@ -2905,19 +2946,19 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>717275</v>
+        <v>720839</v>
       </c>
       <c r="B84" s="2">
-        <v>810002050</v>
+        <v>810015073</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>11</v>
@@ -2931,19 +2972,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>715952</v>
+        <v>720840</v>
       </c>
       <c r="B85" s="4">
-        <v>810005020</v>
+        <v>810002042</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>11</v>
@@ -2957,19 +2998,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>715953</v>
+        <v>720841</v>
       </c>
       <c r="B86" s="2">
-        <v>810004013</v>
+        <v>810006097</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>11</v>
@@ -2983,19 +3024,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>719069</v>
+        <v>720843</v>
       </c>
       <c r="B87" s="4">
-        <v>810014032</v>
+        <v>810005012</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>11</v>
@@ -3009,33 +3050,579 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
+        <v>720844</v>
+      </c>
+      <c r="B88" s="2">
+        <v>810012019</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>715952</v>
+      </c>
+      <c r="B89" s="4">
+        <v>810005020</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>715953</v>
+      </c>
+      <c r="B90" s="2">
+        <v>810004013</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>719069</v>
+      </c>
+      <c r="B91" s="4">
+        <v>810014032</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>719071</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B92" s="2">
         <v>810006068</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>720845</v>
+      </c>
+      <c r="B93" s="4">
+        <v>810006063</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>720846</v>
+      </c>
+      <c r="B94" s="2">
+        <v>810015062</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>720847</v>
+      </c>
+      <c r="B95" s="4">
+        <v>810015063</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="2" t="s">
+      <c r="E95" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>720848</v>
+      </c>
+      <c r="B96" s="2">
+        <v>810006059</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>720849</v>
+      </c>
+      <c r="B97" s="4">
+        <v>810012016</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>720850</v>
+      </c>
+      <c r="B98" s="2">
+        <v>810003089</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>720851</v>
+      </c>
+      <c r="B99" s="4">
+        <v>810003053</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>720852</v>
+      </c>
+      <c r="B100" s="2">
+        <v>810006092</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>720853</v>
+      </c>
+      <c r="B101" s="4">
+        <v>810015059</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>720854</v>
+      </c>
+      <c r="B102" s="2">
+        <v>810012003</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>720855</v>
+      </c>
+      <c r="B103" s="4">
+        <v>810003065</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>720856</v>
+      </c>
+      <c r="B104" s="2">
+        <v>810002043</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>720857</v>
+      </c>
+      <c r="B105" s="4">
+        <v>810014031</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>720858</v>
+      </c>
+      <c r="B106" s="2">
+        <v>810014012</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>720859</v>
+      </c>
+      <c r="B107" s="4">
+        <v>810005011</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>720860</v>
+      </c>
+      <c r="B108" s="2">
+        <v>810005021</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>720861</v>
+      </c>
+      <c r="B109" s="4">
+        <v>810004014</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" errorTitle="Selecione Corretamente" error="Entrada Inválida" promptTitle="Selecione a opção" prompt="Selecione a Lista" sqref="F2:H250" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" errorTitle="Selecione Corretamente" error="Entrada Inválida" promptTitle="Selecione a opção" prompt="Selecione a Lista" sqref="F2:H250">
       <formula1>"Mapeado, Parcial,  Conferido, Não Conferido, Separado, Entregue"</formula1>
     </dataValidation>
   </dataValidations>
